--- a/SuppXLS/Scn_ELCMANHEATt_share_20_50.xlsx
+++ b/SuppXLS/Scn_ELCMANHEATt_share_20_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{52D2E016-4EB0-44F0-B58C-877CEC6EC4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169D6CE9-631A-4A5B-8537-2C2A0BD54E69}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{52D2E016-4EB0-44F0-B58C-877CEC6EC4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F511D47-83B2-4A1A-99D8-AE3115A32972}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6B611D2-F4E9-4A62-AC12-A4501F9E91B9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6B611D2-F4E9-4A62-AC12-A4501F9E91B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_HEAT_20_50" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,11 +491,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,13 +524,13 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
